--- a/Testing Files/Determiner Test Files/MLSData.xlsx
+++ b/Testing Files/Determiner Test Files/MLSData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Origami1105\source\repos\HatcoMarketShareHelper\Testing Files\Determiner Test Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D93491-077E-4F9C-803E-CC8BBA544FED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA96D4DB-E9C7-46A9-97EB-A912F553FA8A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B477FE81-BBEC-4E02-88DD-D51E7F5F506A}"/>
+    <workbookView xWindow="276" yWindow="1872" windowWidth="15360" windowHeight="9024" xr2:uid="{B477FE81-BBEC-4E02-88DD-D51E7F5F506A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
   <si>
     <t>Selling Agent</t>
   </si>
@@ -220,6 +220,27 @@
   </si>
   <si>
     <t>425 E Johnson Street</t>
+  </si>
+  <si>
+    <t>Likely Closed</t>
+  </si>
+  <si>
+    <t>Escrow Officer</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>did not close</t>
+  </si>
+  <si>
+    <t>test15</t>
+  </si>
+  <si>
+    <t>test16</t>
   </si>
 </sst>
 </file>
@@ -576,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807ACA53-ECA1-4FB2-BF4A-6452718DE0C4}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
@@ -590,7 +611,7 @@
     <col min="7" max="10" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -621,8 +642,20 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -650,8 +683,17 @@
       <c r="I2" s="2">
         <v>61900</v>
       </c>
+      <c r="J2">
+        <v>20191011</v>
+      </c>
+      <c r="L2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -679,8 +721,17 @@
       <c r="I3" s="2">
         <v>135000</v>
       </c>
+      <c r="J3">
+        <v>20191062</v>
+      </c>
+      <c r="L3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -708,8 +759,11 @@
       <c r="I4" s="2">
         <v>142500</v>
       </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -737,8 +791,11 @@
       <c r="I5" s="2">
         <v>250000</v>
       </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -766,8 +823,11 @@
       <c r="I6" s="2">
         <v>227000</v>
       </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -795,8 +855,11 @@
       <c r="I7" s="2">
         <v>110000</v>
       </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -824,8 +887,23 @@
       <c r="I8" s="2">
         <v>293000</v>
       </c>
+      <c r="J8">
+        <v>20190096</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -853,8 +931,11 @@
       <c r="I9" s="2">
         <v>75000</v>
       </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -882,8 +963,17 @@
       <c r="I10" s="2">
         <v>325000</v>
       </c>
+      <c r="J10">
+        <v>20182625</v>
+      </c>
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -910,6 +1000,9 @@
       </c>
       <c r="I11" s="2">
         <v>130000</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
